--- a/inst/extdata/mapping.xlsx
+++ b/inst/extdata/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/a_mishra_cgiar_org/Documents/Documents/Work/Paper writing/GFS/scripts/GFS-IMPACTR/GFSir/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048E6A11C5AAE5BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{300DE445-926F-47DF-8A46-A33AEA131F77}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048E6A11C5AAE5BDE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{095F5DD3-05FE-4067-A22F-6D443F05226E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">crops!$A$1:$B$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regions!$A$1:$D$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1338,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A308589E-965E-4B8E-AFFD-978BF360001A}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
